--- a/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,28; 24,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,52; 34,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,41; 31,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 24,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,52; 365,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,98; 337,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,43; 220,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,62; 122,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,78%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 10,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,35; 19,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,31; 17,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,59; 16,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,85; 96,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,66; 129,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,27; 106,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,31; 68,93</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,86%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,28; 12,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,39; 16,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,78; 12,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,01; 22,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,07; 104,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,64; 98,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,99; 69,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,92; 127,42</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,8%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,61; 17,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,59; 19,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,83; 17,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,82; 42,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,08; 166,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,35; 137,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,0; 139,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,2; 217,14</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,82%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,49; 13,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,45; 22,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,71; 17,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,17; 19,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,27; 91,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,02; 141,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,66; 92,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,06; 88,78</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,19%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,95; 11,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,39; 17,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,18; 14,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,41; 22,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,29; 88,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,9; 104,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,61; 81,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,31; 98,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,07</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,29</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,72</t>
+          <t>12,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>132,99%</t>
+          <t>58,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>159,08%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>46,7%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 24,12</t>
+          <t>3,56; 11,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 34,65</t>
+          <t>11,16; 20,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 31,21</t>
+          <t>8,77; 18,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 24,17</t>
+          <t>7,99; 17,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,52; 365,71</t>
+          <t>23,46; 101,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,98; 337,43</t>
+          <t>57,01; 133,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,43; 220,82</t>
+          <t>40,6; 112,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 122,81</t>
+          <t>26,36; 71,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,59</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>21,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,05%</t>
+          <t>65,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>126,15%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,78</t>
+          <t>5,28; 12,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 19,72</t>
+          <t>8,39; 16,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 17,34</t>
+          <t>4,78; 12,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 16,79</t>
+          <t>16,42; 32,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,85; 96,06</t>
+          <t>35,07; 104,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,66; 129,08</t>
+          <t>39,64; 98,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,27; 106,77</t>
+          <t>21,99; 69,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,31; 68,93</t>
+          <t>71,75; 335,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,53</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,04</t>
+          <t>27,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>111,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>86,86%</t>
+          <t>117,95%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,1</t>
+          <t>9,61; 17,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 16,59</t>
+          <t>10,59; 19,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,48</t>
+          <t>8,83; 17,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,01; 22,53</t>
+          <t>11,55; 52,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,07; 104,22</t>
+          <t>66,08; 166,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,64; 98,31</t>
+          <t>57,35; 137,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,99; 69,58</t>
+          <t>53,0; 139,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,92; 127,42</t>
+          <t>48,88; 276,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,5</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,29</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>111,31%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>102,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>52,22%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 17,8</t>
+          <t>6,49; 13,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 19,82</t>
+          <t>14,45; 22,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 17,53</t>
+          <t>9,71; 17,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 42,06</t>
+          <t>4,26; 17,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,08; 166,54</t>
+          <t>35,27; 91,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,35; 137,3</t>
+          <t>72,02; 141,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,0; 139,63</t>
+          <t>40,66; 92,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,2; 217,14</t>
+          <t>16,94; 78,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,57</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,68</t>
+          <t>19,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>102,22%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,82%</t>
+          <t>86,8%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,67</t>
+          <t>7,95; 11,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,45; 22,34</t>
+          <t>13,39; 17,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 17,62</t>
+          <t>10,18; 14,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,17; 19,62</t>
+          <t>14,27; 29,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,27; 91,76</t>
+          <t>54,29; 88,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,02; 141,69</t>
+          <t>71,9; 104,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,66; 92,2</t>
+          <t>51,61; 81,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,06; 88,78</t>
+          <t>58,76; 153,96</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,61</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,23</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,31</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>71,54%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>87,36%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>64,83%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>73,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,95; 11,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>13,39; 17,47</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,18; 14,43</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,41; 22,59</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>54,29; 88,99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>71,9; 104,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>51,61; 81,53</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>58,31; 98,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,3</t>
+          <t>3,48; 11,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,16; 20,51</t>
+          <t>11,09; 20,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,77; 18,6</t>
+          <t>8,76; 18,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 17,36</t>
+          <t>7,92; 17,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 101,69</t>
+          <t>23,39; 101,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,01; 133,53</t>
+          <t>55,92; 131,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,6; 112,49</t>
+          <t>40,56; 108,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,36; 71,45</t>
+          <t>26,18; 70,93</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,1</t>
+          <t>4,94; 12,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 16,59</t>
+          <t>8,95; 16,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,48</t>
+          <t>4,72; 12,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 32,01</t>
+          <t>16,04; 30,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,07; 104,22</t>
+          <t>33,24; 103,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,64; 98,31</t>
+          <t>42,39; 98,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,99; 69,58</t>
+          <t>21,22; 70,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,75; 335,69</t>
+          <t>71,19; 339,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 17,8</t>
+          <t>9,2; 18,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 19,82</t>
+          <t>10,72; 20,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 17,53</t>
+          <t>9,13; 17,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 52,3</t>
+          <t>11,11; 50,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,08; 166,54</t>
+          <t>62,47; 171,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,35; 137,3</t>
+          <t>56,97; 142,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,0; 139,63</t>
+          <t>52,26; 133,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,88; 276,82</t>
+          <t>46,98; 249,42</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,67</t>
+          <t>6,66; 13,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 22,34</t>
+          <t>14,37; 22,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 17,62</t>
+          <t>9,82; 17,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 17,89</t>
+          <t>4,96; 17,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 91,76</t>
+          <t>35,9; 89,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,02; 141,69</t>
+          <t>71,68; 138,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,66; 92,2</t>
+          <t>42,5; 94,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,94; 78,12</t>
+          <t>19,58; 76,14</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,55</t>
+          <t>8,06; 11,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,39; 17,47</t>
+          <t>13,31; 17,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,43</t>
+          <t>10,1; 14,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,27; 29,9</t>
+          <t>14,55; 31,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,29; 88,99</t>
+          <t>54,56; 92,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,9; 104,75</t>
+          <t>70,06; 106,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,61; 81,53</t>
+          <t>51,19; 80,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,76; 153,96</t>
+          <t>60,43; 160,11</t>
         </is>
       </c>
     </row>
